--- a/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/MONTENEGRO, HELEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AB323-CE17-412D-9E24-7EE5F10A62DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="257">
   <si>
     <t>PERIOD</t>
   </si>
@@ -799,12 +800,18 @@
   </si>
   <si>
     <t>UT(0-4-48)</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>11/28 - 12/1,6,7,15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1686,7 +1693,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1736,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1800,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1860,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1926,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1989,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2087,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2146,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2211,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2254,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2329,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2515,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2581,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2639,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2705,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2761,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2836,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2879,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2945,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3001,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3099,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3162,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3211,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3221,25 +3228,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K379" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K380" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3251,13 +3258,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3266,14 +3273,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3577,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3587,7 +3594,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3595,34 +3602,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K379"/>
+  <dimension ref="A2:K380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A328" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A361" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="E340" sqref="E340"/>
+      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3645,7 +3652,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3665,7 +3672,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3687,7 +3694,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3695,7 +3702,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3708,7 +3715,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3725,7 +3732,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3769,7 +3776,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>121.84099999999995</v>
+        <v>120.59099999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3779,12 +3786,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.25</v>
+        <v>37</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3806,7 +3813,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3826,7 +3833,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3846,7 +3853,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3867,7 +3874,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3888,7 +3895,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3909,7 +3916,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3930,7 +3937,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3951,7 +3958,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3972,7 +3979,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3993,7 +4000,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -4014,7 +4021,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -4041,7 +4048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -4059,7 +4066,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4079,7 +4086,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4104,7 +4111,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4131,7 +4138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4152,7 +4159,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4173,7 +4180,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4194,7 +4201,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4221,7 +4228,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4246,7 +4253,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4275,7 +4282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4295,7 +4302,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4322,7 +4329,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4344,7 +4351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4371,7 +4378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4398,7 +4405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4416,7 +4423,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4463,7 +4470,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4490,7 +4497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4517,7 +4524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4537,7 +4544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4559,7 +4566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4586,7 +4593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4613,7 +4620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4634,7 +4641,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4655,7 +4662,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4682,7 +4689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4704,7 +4711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4731,7 +4738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4752,7 +4759,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4773,7 +4780,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4791,7 +4798,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4811,7 +4818,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4832,7 +4839,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4859,7 +4866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4886,7 +4893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4907,7 +4914,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4934,7 +4941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4955,7 +4962,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4982,7 +4989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -5002,7 +5009,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -5027,7 +5034,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -5052,7 +5059,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5077,7 +5084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5096,7 +5103,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5113,7 +5120,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5138,7 +5145,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5156,7 +5163,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5203,7 +5210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5228,7 +5235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5257,7 +5264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5276,7 +5283,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5293,7 +5300,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5318,7 +5325,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5338,7 +5345,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5365,7 +5372,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5386,7 +5393,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5413,7 +5420,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5440,7 +5447,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5459,7 +5466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5486,7 +5493,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5507,7 +5514,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5528,7 +5535,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5555,7 +5562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5577,7 +5584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5595,7 +5602,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5615,7 +5622,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5640,7 +5647,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5661,7 +5668,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5682,7 +5689,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5703,7 +5710,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5724,7 +5731,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5745,7 +5752,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5766,7 +5773,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5787,7 +5794,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5808,7 +5815,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5829,7 +5836,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5854,7 +5861,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5874,7 +5881,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5892,7 +5899,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5912,7 +5919,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5933,7 +5940,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5954,7 +5961,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5975,7 +5982,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5996,7 +6003,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -6017,7 +6024,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -6038,7 +6045,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -6059,7 +6066,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6080,7 +6087,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6101,7 +6108,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6128,7 +6135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6146,7 +6153,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6167,7 +6174,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6185,7 +6192,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6205,7 +6212,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6226,7 +6233,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6247,7 +6254,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6272,7 +6279,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6292,7 +6299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6319,7 +6326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6334,7 +6341,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6349,7 +6356,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6364,7 +6371,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6389,7 +6396,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6409,7 +6416,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6434,7 +6441,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6461,7 +6468,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6481,7 +6488,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6506,7 +6513,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6527,7 +6534,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6552,7 +6559,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6577,7 +6584,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6595,7 +6602,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6639,7 +6646,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6660,7 +6667,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6681,7 +6688,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6708,7 +6715,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6728,7 +6735,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6753,7 +6760,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6778,7 +6785,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6803,7 +6810,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6828,7 +6835,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6855,7 +6862,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6875,7 +6882,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6902,7 +6909,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6922,7 +6929,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6947,7 +6954,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6974,7 +6981,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -6994,7 +7001,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -7012,7 +7019,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -7036,7 +7043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -7056,7 +7063,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7081,7 +7088,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7104,7 +7111,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7119,7 +7126,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7134,7 +7141,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7151,7 +7158,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7174,7 +7181,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7194,7 +7201,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7219,7 +7226,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7236,7 +7243,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7253,7 +7260,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7278,7 +7285,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7305,7 +7312,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7325,7 +7332,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7350,7 +7357,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7373,7 +7380,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7393,7 +7400,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7420,7 +7427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7440,7 +7447,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7461,7 +7468,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7486,7 +7493,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7506,7 +7513,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7524,7 +7531,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7548,7 +7555,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7565,7 +7572,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7590,7 +7597,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7615,7 +7622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7634,7 +7641,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7659,7 +7666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7676,7 +7683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7693,7 +7700,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7718,7 +7725,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7743,7 +7750,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7768,7 +7775,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7793,7 +7800,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7820,7 +7827,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7839,7 +7846,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7858,7 +7865,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7877,7 +7884,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7894,7 +7901,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7915,7 +7922,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7940,7 +7947,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7965,7 +7972,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7983,7 +7990,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -8003,7 +8010,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -8028,7 +8035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -8048,7 +8055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8075,7 +8082,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8090,7 +8097,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8111,7 +8118,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8132,7 +8139,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8159,7 +8166,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8181,7 +8188,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8202,7 +8209,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8223,7 +8230,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8248,7 +8255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8275,7 +8282,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8297,7 +8304,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8318,7 +8325,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8339,7 +8346,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8357,7 +8364,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8377,7 +8384,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8404,7 +8411,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8429,7 +8436,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8449,7 +8456,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8470,7 +8477,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8491,7 +8498,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8512,7 +8519,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8533,7 +8540,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8554,7 +8561,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8575,7 +8582,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8602,7 +8609,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8624,7 +8631,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8651,7 +8658,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8673,7 +8680,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8694,7 +8701,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8712,7 +8719,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8732,7 +8739,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8759,7 +8766,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8786,7 +8793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8807,7 +8814,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8832,7 +8839,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8853,7 +8860,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8874,7 +8881,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8895,7 +8902,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8916,7 +8923,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8943,7 +8950,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8964,7 +8971,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8985,7 +8992,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -9003,7 +9010,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -9023,7 +9030,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -9044,7 +9051,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -9071,7 +9078,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9090,7 +9097,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9107,7 +9114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9128,7 +9135,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9153,7 +9160,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9175,7 +9182,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9196,7 +9203,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9217,7 +9224,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9244,7 +9251,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9265,7 +9272,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9292,7 +9299,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9311,7 +9318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9330,7 +9337,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9351,7 +9358,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9372,7 +9379,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9390,7 +9397,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9416,7 +9423,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9437,7 +9444,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9458,7 +9465,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9483,7 +9490,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9508,7 +9515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9527,7 +9534,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9546,7 +9553,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9567,7 +9574,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9594,7 +9601,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9615,7 +9622,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9642,7 +9649,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9661,7 +9668,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9688,7 +9695,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9710,7 +9717,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9731,7 +9738,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9758,7 +9765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9776,7 +9783,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9802,7 +9809,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9823,7 +9830,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9844,7 +9851,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9869,7 +9876,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9889,7 +9896,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9908,7 +9915,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9927,7 +9934,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9946,7 +9953,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9967,7 +9974,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9988,7 +9995,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -10009,7 +10016,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -10036,7 +10043,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -10063,7 +10070,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10090,7 +10097,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10111,7 +10118,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10138,7 +10145,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10156,7 +10163,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10176,7 +10183,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10201,7 +10208,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10226,7 +10233,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10247,7 +10254,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10268,7 +10275,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10289,7 +10296,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10310,7 +10317,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10331,7 +10338,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10358,7 +10365,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10380,7 +10387,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10401,7 +10408,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10422,7 +10429,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10443,7 +10450,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10461,7 +10468,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10481,7 +10488,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10508,7 +10515,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10527,7 +10534,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10546,7 +10553,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10567,7 +10574,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10594,7 +10601,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10615,7 +10622,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10636,7 +10643,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10663,7 +10670,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10684,7 +10691,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10705,7 +10712,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10726,7 +10733,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10753,7 +10760,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10774,7 +10781,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10794,7 +10801,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10814,7 +10821,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10835,7 +10842,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" ref="A328" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10862,7 +10869,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10884,7 +10891,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10906,7 +10913,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>254</v>
@@ -10926,7 +10933,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="52"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10951,7 +10958,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>49</v>
@@ -10970,7 +10977,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>65</v>
@@ -10987,7 +10994,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>251</v>
@@ -11009,7 +11016,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>253</v>
@@ -11029,7 +11036,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="52"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A332,1)</f>
         <v>44682</v>
@@ -11056,7 +11063,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>252</v>
@@ -11076,7 +11083,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="52"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>44713</v>
@@ -11103,7 +11110,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>250</v>
@@ -11123,7 +11130,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>44743</v>
@@ -11150,7 +11157,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>65</v>
@@ -11167,7 +11174,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>248</v>
@@ -11187,7 +11194,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>44774</v>
       </c>
@@ -11211,7 +11218,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="41">
         <v>44805</v>
       </c>
@@ -11237,7 +11244,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>246</v>
@@ -11257,7 +11264,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>44835</v>
       </c>
@@ -11283,7 +11290,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>223</v>
@@ -11303,7 +11310,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="52"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>230</v>
@@ -11325,7 +11332,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>224</v>
@@ -11347,7 +11354,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>243</v>
@@ -11369,7 +11376,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>245</v>
@@ -11389,7 +11396,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="53"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>44866</v>
       </c>
@@ -11415,7 +11422,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>242</v>
@@ -11435,7 +11442,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="52"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44896</v>
       </c>
@@ -11461,7 +11468,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>223</v>
@@ -11483,7 +11490,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>221</v>
@@ -11505,7 +11512,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>241</v>
@@ -11525,7 +11532,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="52"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="48" t="s">
         <v>220</v>
       </c>
@@ -11543,7 +11550,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44927</v>
       </c>
@@ -11569,7 +11576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44958</v>
       </c>
@@ -11595,7 +11602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="41">
         <v>44986</v>
       </c>
@@ -11619,7 +11626,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>45017</v>
       </c>
@@ -11645,7 +11652,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>45047</v>
       </c>
@@ -11669,7 +11676,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>223</v>
@@ -11691,7 +11698,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>45078</v>
       </c>
@@ -11717,7 +11724,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>221</v>
@@ -11739,7 +11746,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>45108</v>
       </c>
@@ -11762,7 +11769,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>223</v>
@@ -11784,7 +11791,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>45139</v>
       </c>
@@ -11810,47 +11817,63 @@
         <v>240</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>45170</v>
       </c>
-      <c r="B371" s="20"/>
-      <c r="C371" s="13"/>
+      <c r="B371" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H371" s="39"/>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H371" s="39">
+        <v>1</v>
+      </c>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="20"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K371" s="52">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>45200</v>
       </c>
-      <c r="B372" s="20"/>
-      <c r="C372" s="13"/>
+      <c r="B372" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C372" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D372" s="39"/>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H372" s="39"/>
+      <c r="G372" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H372" s="39">
+        <v>1</v>
+      </c>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
-      <c r="K372" s="20"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B373" s="20"/>
+      <c r="K372" s="52">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="40"/>
+      <c r="B373" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
       <c r="E373" s="9"/>
@@ -11859,32 +11882,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H373" s="39"/>
+      <c r="H373" s="39">
+        <v>2</v>
+      </c>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K373" s="52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B374" s="20"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C374" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D374" s="39">
+        <v>5</v>
+      </c>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G374" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K374" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11900,9 +11935,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11918,9 +11953,9 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11936,8 +11971,10 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="40"/>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="40">
+        <v>45352</v>
+      </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
@@ -11952,21 +11989,37 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="41"/>
-      <c r="B379" s="15"/>
-      <c r="C379" s="42"/>
-      <c r="D379" s="43"/>
-      <c r="E379" s="51"/>
-      <c r="F379" s="15"/>
-      <c r="G379" s="42" t="str">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H379" s="43"/>
-      <c r="I379" s="51"/>
-      <c r="J379" s="12"/>
-      <c r="K379" s="15"/>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="41"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="42"/>
+      <c r="D380" s="43"/>
+      <c r="E380" s="51"/>
+      <c r="F380" s="15"/>
+      <c r="G380" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="43"/>
+      <c r="I380" s="51"/>
+      <c r="J380" s="12"/>
+      <c r="K380" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11983,10 +12036,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12009,7 +12062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12017,21 +12070,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -12044,7 +12097,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12073,7 +12126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -12099,17 +12152,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12130,7 +12183,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12157,7 +12210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12183,7 +12236,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12209,7 +12262,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12235,7 +12288,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12261,7 +12314,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12287,7 +12340,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12313,7 +12366,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12339,7 +12392,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12359,7 +12412,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12379,7 +12432,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12399,7 +12452,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12420,7 +12473,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12441,7 +12494,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12462,7 +12515,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12483,7 +12536,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12504,7 +12557,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12525,7 +12578,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12546,7 +12599,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12567,7 +12620,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12588,7 +12641,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12609,7 +12662,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12630,7 +12683,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12651,7 +12704,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12672,7 +12725,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12693,7 +12746,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12714,7 +12767,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12735,7 +12788,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12756,7 +12809,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12777,7 +12830,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12798,7 +12851,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12819,7 +12872,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12828,7 +12881,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12837,7 +12890,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12846,7 +12899,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12855,7 +12908,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12864,7 +12917,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12873,7 +12926,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12882,7 +12935,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12891,7 +12944,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12900,7 +12953,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12909,7 +12962,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12918,7 +12971,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12927,7 +12980,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12936,7 +12989,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12945,7 +12998,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12954,7 +13007,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12963,7 +13016,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12972,7 +13025,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12981,7 +13034,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12990,7 +13043,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12999,7 +13052,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13008,7 +13061,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13017,7 +13070,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13026,7 +13079,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13035,7 +13088,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13044,7 +13097,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13053,7 +13106,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13062,7 +13115,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13071,7 +13124,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13080,7 +13133,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
